--- a/design/Stepper Pins.xlsx
+++ b/design/Stepper Pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/proj/robot/idx6dof/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA9B16CA-DB41-4849-972D-4DBF3E8B887E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EAEDAC-64D9-774F-B6BF-C3E84658A7DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="4780" windowWidth="28040" windowHeight="17440" xr2:uid="{FEA62D67-04BD-1945-8A48-350901424D48}"/>
+    <workbookView xWindow="1980" yWindow="2040" windowWidth="28320" windowHeight="17440" xr2:uid="{FEA62D67-04BD-1945-8A48-350901424D48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,167 +498,167 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -678,185 +678,189 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
       <c r="F14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J28">
+    <sortCondition ref="D2:D28"/>
+    <sortCondition ref="E2:E28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
